--- a/September'21/25.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/25.09.2021/Daily Sales Info Sep'21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="3" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="3" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -219,7 +219,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Desh Mobile Sim sale 25</t>
@@ -1488,7 +1488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1597,19 +1597,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -44591,9 +44578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57131,8 +57118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59334,8 +59321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
